--- a/xlsx/人_intext.xlsx
+++ b/xlsx/人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="644">
   <si>
     <t>人</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>人 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_人</t>
+    <t>人 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E4%B8%87%E5%B9%B4</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E7%95%99%E7%B4%80</t>
   </si>
   <si>
-    <t>志留紀</t>
+    <t>志留纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E7%9B%86%E7%BA%AA</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>高加索人種</t>
+    <t>高加索人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E7%8A%B6%E5%86%B5</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE%E7%B4%85%E8%89%B2%E5%90%8D%E9%8C%84</t>
   </si>
   <si>
-    <t>世界自然保護聯盟瀕危物種紅色名錄</t>
+    <t>世界自然保护联盟濒危物种红色名录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>滅絕</t>
+    <t>灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%85%E6%99%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>長者智人</t>
+    <t>长者智人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E6%9C%9F%E6%99%BA%E4%BA%BA</t>
@@ -215,21 +215,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%90%8D</t>
   </si>
   <si>
-    <t>異名</t>
+    <t>异名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E7%9B%AE</t>
   </si>
   <si>
-    <t>靈長目</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B1%AC</t>
   </si>
   <si>
-    <t>人屬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E4%BA%BA</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9D%9E%E5%A4%A7%E8%A3%82%E8%B0%B7</t>
   </si>
   <si>
-    <t>東非大裂谷</t>
+    <t>东非大裂谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%84%91</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%AA%9E</t>
   </si>
   <si>
-    <t>口語</t>
+    <t>口语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A2%E4%BD%93%E8%AF%AD%E8%A8%80</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E4%BD%9C</t>
   </si>
   <si>
-    <t>協作</t>
+    <t>协作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91</t>
@@ -407,13 +401,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3%E7%B6%B1</t>
   </si>
   <si>
-    <t>哺乳綱</t>
+    <t>哺乳纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%8C%A9%E7%8C%A9</t>
@@ -437,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%87%82%E7%8C%BF</t>
   </si>
   <si>
-    <t>長臂猿</t>
+    <t>长臂猿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%8C%BF%E6%80%BB%E7%A7%91</t>
@@ -467,19 +458,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>文化人類學</t>
+    <t>文化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -521,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82</t>
   </si>
   <si>
-    <t>靈魂</t>
+    <t>灵魂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%AF%9D%E5%AD%A6</t>
@@ -545,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>獸人</t>
+    <t>兽人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞人</t>
+    <t>亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%88%90%E5%B9%B4</t>
@@ -605,15 +596,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%90%86%E8%A7%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人類理解論</t>
+    <t>人类理解论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
@@ -635,13 +623,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A5%95%E5%8B%95%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>神祕動物學</t>
+    <t>神祕动物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%BA%BA</t>
@@ -671,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E4%BA%BA%E7%8C%BF%E4%BA%BA%E6%A0%BC</t>
   </si>
   <si>
-    <t>類人猿人格</t>
+    <t>类人猿人格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87</t>
@@ -701,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B7%E6%9B%B8</t>
   </si>
   <si>
-    <t>楷書</t>
+    <t>楷书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%AA%E6%96%87%E8%A7%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>說文解字</t>
+    <t>说文解字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -731,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E6%BC%94%E5%8C%96%E5%8E%86%E7%A8%8B</t>
@@ -767,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%B0%8E%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>神導演化論</t>
+    <t>神导演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E8%AB%96</t>
   </si>
   <si>
-    <t>創造論</t>
+    <t>创造论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E</t>
@@ -785,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%E8%AB%B8%E6%95%99</t>
   </si>
   <si>
-    <t>亞伯拉罕諸教</t>
+    <t>亚伯拉罕诸教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -797,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AA%A7</t>
   </si>
   <si>
-    <t>女媧</t>
+    <t>女娲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B</t>
@@ -839,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE</t>
   </si>
   <si>
-    <t>子宮</t>
+    <t>子宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E</t>
@@ -851,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E5%85%92</t>
   </si>
   <si>
-    <t>胎兒</t>
+    <t>胎儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -869,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E6%AD%BB%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>瀕死經驗</t>
+    <t>濒死经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E6%99%BA%E5%8A%9B</t>
@@ -917,9 +902,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
-    <t>语言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0</t>
   </si>
   <si>
@@ -929,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>智力測驗</t>
+    <t>智力测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -941,19 +923,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%A6%9D</t>
   </si>
   <si>
-    <t>化妝</t>
+    <t>化妆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E8%A3%9D</t>
   </si>
   <si>
-    <t>服裝</t>
+    <t>服装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%AF%B6</t>
   </si>
   <si>
-    <t>珠寶</t>
+    <t>珠宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E9%9D%92</t>
@@ -965,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E5%9E%8B</t>
   </si>
   <si>
-    <t>髮型</t>
+    <t>发型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%A4%96%E8%B2%8C</t>
@@ -977,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%A2%E9%A4%93</t>
   </si>
   <si>
-    <t>飢餓</t>
+    <t>饥饿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E6%B8%B4</t>
@@ -989,19 +971,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E6%B0%B4</t>
   </si>
   <si>
-    <t>脫水</t>
+    <t>脱水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%A5%E9%A5%BF</t>
   </si>
   <si>
-    <t>饥饿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E4%B8%8D%E8%89%AF</t>
   </si>
   <si>
-    <t>營養不良</t>
+    <t>营养不良</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA</t>
@@ -1013,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
+    <t>儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9D%A1%E7%9C%A0%E4%B8%8D%E8%B6%B3</t>
@@ -1037,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -1061,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E9%A3%9F%E6%80%A7</t>
   </si>
   <si>
-    <t>雜食性</t>
+    <t>杂食性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E9%A3%9F%E4%B8%BB%E4%B9%89</t>
@@ -1073,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9E%E8%A1%80%E7%97%85</t>
   </si>
   <si>
-    <t>壞血病</t>
+    <t>坏血病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E7%B4%A0</t>
   </si>
   <si>
-    <t>營養素</t>
+    <t>营养素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0B12</t>
   </si>
   <si>
-    <t>維生素B12</t>
+    <t>维生素B12</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -1103,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>飲食</t>
+    <t>饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E6%8A%80%E6%9C%AF</t>
@@ -1127,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -1145,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -1181,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -1217,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE</t>
@@ -1235,25 +1214,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BE%A9</t>
   </si>
   <si>
-    <t>教義</t>
+    <t>教义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E8%AB%96</t>
   </si>
   <si>
-    <t>輿論</t>
+    <t>舆论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E6%93%8D</t>
   </si>
   <si>
-    <t>貞操</t>
+    <t>贞操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%AB%E5%A4%9A%E5%A6%BB</t>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A6%BB%E5%A4%9A%E5%A4%AB</t>
@@ -1319,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E7%B3%BB%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>母系社會</t>
+    <t>母系社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -1463,13 +1442,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%80%85%E9%8D%8D%E9%87%91%E9%8B%81%E6%9D%BF</t>
   </si>
   <si>
-    <t>先驅者鍍金鋁板</t>
+    <t>先驱者镀金铝板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自然保護聯盟</t>
+    <t>国际自然保护联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1493,19 +1472,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
-    <t>動物界</t>
+    <t>动物界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E7%B4%A2%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
-    <t>脊索動物門</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E9%BC%BB%E4%BA%9E%E7%9B%AE</t>
   </si>
   <si>
-    <t>簡鼻亞目</t>
+    <t>简鼻亚目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ponginae</t>
@@ -1523,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E6%B4%B2%E7%8C%A9%E7%8C%A9</t>
   </si>
   <si>
-    <t>婆羅洲猩猩</t>
+    <t>婆罗洲猩猩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%96%80%E9%81%94%E8%87%98%E7%8C%A9%E7%8C%A9</t>
   </si>
   <si>
-    <t>蘇門達臘猩猩</t>
+    <t>苏门达腊猩猩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E5%B7%B4%E5%A5%B4%E9%87%8C%E7%8C%A9%E7%8C%A9</t>
@@ -1559,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%A8%E5%A4%A7%E7%8C%A9%E7%8C%A9</t>
   </si>
   <si>
-    <t>東部大猩猩</t>
+    <t>东部大猩猩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Chimpanzee</t>
@@ -1619,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
   </si>
   <si>
-    <t>第二性徵</t>
+    <t>第二性征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
   </si>
   <si>
-    <t>金錢</t>
+    <t>金钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
@@ -1655,9 +1631,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
   </si>
   <si>
-    <t>社会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
   </si>
   <si>
@@ -1685,19 +1658,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A0%B9%E5%8E%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>圖根原人</t>
+    <t>图根原人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9E%E5%B9%B3%E8%87%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>肯尼亞平臉人</t>
+    <t>肯尼亚平脸人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%8F%A4%E7%8C%BF%E9%A1%9E</t>
   </si>
   <si>
-    <t>南方古猿類</t>
+    <t>南方古猿类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%96%B0%E4%B8%96</t>
@@ -1745,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9A%E5%A5%87%E5%8D%97%E6%96%B9%E5%8F%A4%E7%8C%BF</t>
   </si>
   <si>
-    <t>驚奇南方古猿</t>
+    <t>惊奇南方古猿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E6%B3%89%E5%8D%97%E6%96%B9%E5%8F%A4%E7%8C%BF</t>
@@ -1763,25 +1736,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E%E5%82%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>埃塞俄比亞傍人</t>
+    <t>埃塞俄比亚傍人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%99%BE%E6%B0%8F%E5%82%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>羅百氏傍人</t>
+    <t>罗百氏傍人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E6%B0%8F%E5%82%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>鮑氏傍人</t>
+    <t>鲍氏傍人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>人亞族</t>
+    <t>人亚族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E4%BA%BA</t>
@@ -1799,13 +1772,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%8F%8A%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>格魯及亞人</t>
+    <t>格鲁及亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E7%94%B0%E4%BA%BA</t>
   </si>
   <si>
-    <t>藍田人</t>
+    <t>蓝田人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%8E%BF%E4%BA%BA</t>
@@ -1865,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>魯道夫人</t>
+    <t>鲁道夫人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Homo_gautengensis</t>
@@ -1883,13 +1856,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%8B%92%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>佛羅勒斯人</t>
+    <t>佛罗勒斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B8%83%E8%98%AD%E8%AB%BE%E4%BA%BA</t>
   </si>
   <si>
-    <t>西布蘭諾人</t>
+    <t>西布兰诺人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E6%99%BA%E4%BA%BA</t>
@@ -1907,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>羅德西亞人</t>
+    <t>罗德西亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%AE%89%E5%BE%B7%E5%A1%94%E4%BA%BA</t>
@@ -1925,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E9%A6%AC%E5%84%82%E4%BA%BA</t>
   </si>
   <si>
-    <t>克羅馬儂人</t>
+    <t>克罗马侬人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%8E%E6%B9%96%E5%8E%9F%E4%BA%BA</t>
@@ -1955,13 +1928,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%9C%B0%E8%B5%B7%E6%BA%90%E8%AA%AA</t>
   </si>
   <si>
-    <t>多地起源說</t>
+    <t>多地起源说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3301,7 +3274,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -3327,10 +3300,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -3356,10 +3329,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3385,10 +3358,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3414,10 +3387,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3443,10 +3416,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -3472,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3501,10 +3474,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3530,10 +3503,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -3559,10 +3532,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3588,10 +3561,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>9</v>
@@ -3617,10 +3590,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3646,10 +3619,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3675,10 +3648,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3704,10 +3677,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3733,10 +3706,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3762,10 +3735,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3791,10 +3764,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3820,10 +3793,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -3849,10 +3822,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3878,10 +3851,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3907,10 +3880,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3936,10 +3909,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3965,10 +3938,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3994,10 +3967,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4023,10 +3996,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4052,10 +4025,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4081,10 +4054,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4110,10 +4083,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4139,10 +4112,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -4168,10 +4141,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4197,10 +4170,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G65" t="n">
         <v>14</v>
@@ -4226,10 +4199,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4255,10 +4228,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4284,10 +4257,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4313,10 +4286,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -4342,10 +4315,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4371,10 +4344,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4400,10 +4373,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4429,10 +4402,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4458,10 +4431,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4487,10 +4460,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4516,10 +4489,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4545,10 +4518,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -4574,10 +4547,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>10</v>
@@ -4603,10 +4576,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4632,10 +4605,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>12</v>
@@ -4661,10 +4634,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4690,10 +4663,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4719,10 +4692,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4748,10 +4721,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4777,10 +4750,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4806,10 +4779,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4835,10 +4808,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4864,10 +4837,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4893,10 +4866,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4922,10 +4895,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4951,10 +4924,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4980,10 +4953,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5009,10 +4982,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5038,10 +5011,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5067,10 +5040,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5096,10 +5069,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5125,10 +5098,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5154,10 +5127,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5183,10 +5156,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>39</v>
@@ -5212,10 +5185,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5241,10 +5214,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5270,10 +5243,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5299,10 +5272,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5328,10 +5301,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="G104" t="n">
         <v>11</v>
@@ -5357,10 +5330,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5386,10 +5359,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F106" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5415,10 +5388,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -5444,10 +5417,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5473,10 +5446,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5502,10 +5475,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5531,10 +5504,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5560,10 +5533,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5589,10 +5562,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5618,10 +5591,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5647,10 +5620,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5676,10 +5649,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5705,10 +5678,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5734,10 +5707,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5763,10 +5736,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5792,10 +5765,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -5821,10 +5794,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -5850,10 +5823,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5879,10 +5852,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5908,10 +5881,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5937,10 +5910,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5966,10 +5939,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5995,10 +5968,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6024,10 +5997,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6053,10 +6026,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>6</v>
@@ -6082,10 +6055,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>12</v>
@@ -6111,10 +6084,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6140,10 +6113,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6169,10 +6142,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6198,10 +6171,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6227,10 +6200,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6256,10 +6229,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6285,10 +6258,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6314,10 +6287,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6343,10 +6316,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -6372,10 +6345,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6401,10 +6374,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6430,10 +6403,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6459,10 +6432,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -6488,10 +6461,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6517,10 +6490,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6546,10 +6519,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6575,10 +6548,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6604,10 +6577,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6633,10 +6606,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6662,10 +6635,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6691,10 +6664,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6720,10 +6693,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6749,10 +6722,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="G153" t="n">
         <v>11</v>
@@ -6778,10 +6751,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6807,10 +6780,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6836,10 +6809,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6865,10 +6838,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6894,10 +6867,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6923,10 +6896,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6952,10 +6925,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6981,10 +6954,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7010,10 +6983,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7039,10 +7012,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7068,10 +7041,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7097,10 +7070,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7126,10 +7099,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7155,10 +7128,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7184,10 +7157,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7213,10 +7186,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7242,10 +7215,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7271,10 +7244,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -7300,10 +7273,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>5</v>
@@ -7329,10 +7302,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7358,10 +7331,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7387,10 +7360,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7416,10 +7389,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7445,10 +7418,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7474,10 +7447,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7503,10 +7476,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7532,10 +7505,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7561,10 +7534,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7590,13 +7563,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7619,10 +7592,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7648,10 +7621,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7677,10 +7650,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -7706,10 +7679,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7735,10 +7708,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7764,10 +7737,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7793,10 +7766,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7822,10 +7795,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7851,10 +7824,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7880,10 +7853,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7909,10 +7882,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7938,10 +7911,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7967,10 +7940,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7996,10 +7969,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8025,10 +7998,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8054,10 +8027,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8083,10 +8056,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8112,10 +8085,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8141,10 +8114,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8170,10 +8143,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8199,10 +8172,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8228,10 +8201,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8257,10 +8230,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8286,10 +8259,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8315,10 +8288,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8344,10 +8317,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8373,10 +8346,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8402,10 +8375,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8431,10 +8404,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8460,10 +8433,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8489,10 +8462,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8518,10 +8491,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8547,10 +8520,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8576,10 +8549,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8605,10 +8578,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8634,10 +8607,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8663,10 +8636,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8692,10 +8665,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8721,10 +8694,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8750,10 +8723,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8779,10 +8752,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>20</v>
@@ -8808,10 +8781,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8837,10 +8810,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8866,10 +8839,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8895,10 +8868,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8924,10 +8897,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8953,10 +8926,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8982,10 +8955,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9011,10 +8984,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9040,10 +9013,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9069,10 +9042,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9098,10 +9071,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9127,10 +9100,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9156,10 +9129,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9185,10 +9158,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9214,10 +9187,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9243,10 +9216,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9272,10 +9245,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9301,10 +9274,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9330,10 +9303,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9359,10 +9332,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9388,10 +9361,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9417,10 +9390,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9446,10 +9419,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9504,10 +9477,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9533,10 +9506,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9562,10 +9535,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9591,10 +9564,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9626,7 +9599,7 @@
         <v>52</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9649,10 +9622,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9678,10 +9651,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>46</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9707,10 +9680,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9736,10 +9709,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9765,10 +9738,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9794,13 +9767,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -9823,13 +9796,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -9852,13 +9825,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9881,10 +9854,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9910,10 +9883,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9939,13 +9912,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9968,13 +9941,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9997,10 +9970,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10026,13 +9999,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F266" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10055,13 +10028,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10084,10 +10057,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>35</v>
@@ -10113,13 +10086,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F269" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10142,10 +10115,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>15</v>
@@ -10171,10 +10144,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10200,10 +10173,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10229,10 +10202,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10258,10 +10231,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F274" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G274" t="n">
         <v>18</v>
@@ -10287,10 +10260,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10316,10 +10289,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F276" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10345,10 +10318,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10374,10 +10347,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10403,10 +10376,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10432,10 +10405,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10461,10 +10434,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10490,10 +10463,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10519,10 +10492,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G283" t="n">
         <v>5</v>
@@ -10548,10 +10521,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>151</v>
       </c>
       <c r="G284" t="n">
         <v>12</v>
@@ -10577,10 +10550,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F285" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10606,10 +10579,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10635,10 +10608,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F287" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -10664,10 +10637,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10693,10 +10666,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10722,10 +10695,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10751,10 +10724,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10780,10 +10753,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10809,13 +10782,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10838,10 +10811,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -10867,10 +10840,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10896,10 +10869,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10925,10 +10898,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10954,10 +10927,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F298" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10983,10 +10956,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11012,10 +10985,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11041,10 +11014,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11070,10 +11043,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11099,10 +11072,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11128,10 +11101,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11157,10 +11130,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11186,10 +11159,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11215,10 +11188,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11244,10 +11217,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11273,10 +11246,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11302,10 +11275,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11331,10 +11304,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11360,10 +11333,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11389,10 +11362,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11418,10 +11391,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11447,10 +11420,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11476,10 +11449,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11505,10 +11478,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11534,10 +11507,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11563,10 +11536,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11592,10 +11565,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11621,10 +11594,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11650,10 +11623,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11679,10 +11652,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11708,10 +11681,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11737,10 +11710,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11766,10 +11739,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11795,10 +11768,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11824,10 +11797,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11853,10 +11826,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11882,10 +11855,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11911,10 +11884,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11940,10 +11913,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11969,13 +11942,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F333" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -11998,10 +11971,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F334" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12027,10 +12000,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F335" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12056,10 +12029,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F336" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12085,10 +12058,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F337" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12114,10 +12087,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12143,10 +12116,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12172,10 +12145,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12201,10 +12174,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12230,10 +12203,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>

--- a/xlsx/人_intext.xlsx
+++ b/xlsx/人_intext.xlsx
@@ -29,7 +29,7 @@
     <t>人 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人</t>
+    <t>体育运动_体育运动_古埃及_人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E4%B8%87%E5%B9%B4</t>
@@ -2521,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -2579,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -2637,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2666,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -2695,7 +2695,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -2753,7 +2753,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
